--- a/biology/Médecine/Pulpe_de_la_dent/Pulpe_de_la_dent.xlsx
+++ b/biology/Médecine/Pulpe_de_la_dent/Pulpe_de_la_dent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe de la dent (ou pulpe dentaire) est l'ensemble des tissus de l'intérieur de la cavité dentaire (ou chambre pulpaire).
 Elle se répartit en pulpe coronale située dans cavité de la couronne dentaire et en pulpe radiculaire (ou nerf de la dent)  située dans les canaux de la racine de la dent (ou canaux radiculaires).
@@ -516,28 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cellules
-La zone sous-odontoblastique ou zone de Weil est une zone acellulaire qui contient un important plexus/réseau vasculo-nerveux.
-Odontoblastes
-Composés d'un corps dans la pulpe en forme de palissade et en prolongement dans les tubuli dentinaires. La pulpe peut être séparée des odontoblastes par la zone claire de Weil, acellulaire et inconstante.
-Ce sont des cellules post-mitotiques, responsables de la dentinogenèse (sécrétion de la prédentine et la métadentine). Les odontoblastes participent à la réponse inflammatoire.
-Cellule de Hohl
-Petites cellules rondes possédant la capacité de remplacer les odontoblastes et de former une dentine de réparation.
-Fibroblastes
-Ils possèdent la capacité de se différencier en odontoblastes et de former une dentine de réparation. Rôle de synthèse et entretien de la matrice extra-cellulaire.
-Autres
-Cellules souche : capacité de se différencier en odontoblaste et de former une dentine de réparation. Ces cellules polypotentes ont une localisation paravasculaire (péricyte).
-Cellules de défense immunitaire
-Matrice extracellulaire
-Elle est composée pour 34 % de collagène (par importance décroissante : type I, type III, type V, type VI et type IV) et pour 66 % d'éléments non collagéniques (glycoprotéines, glycosaminoglycanes, élastane, lipides et métalloprotéinase matricielle).
-Vascularisation
-Une artériole pulpaire pénètre dans la dent par le foramen apical. Une fois dans la chambre pulpaire, l'artériole se ramifie en capillaires fenestrés. La palissade odontoblastique contient des anses capillaires.
-Le retour veineux se collecte dans chaque racine de la dent.
-Innervation neurovégétative
-Elle est responsable de la régulation du flux sanguin et est assurée par des fibres sympathiques ; des fibres amyeliniques ; des fibres vasomotrices.
-Innervation sensitive
-L'innervation sensitive est réalisée par diverses fibres sensitives issues du nerf alvéolaire : fibres myéliniques (A delta) ; fibres peu myéliniques (A beta) ; fibres amyéliniques (fibres c).
-Ces fibres pénètrent le foramen apical pour cheminer au sein des canaux radiculaires pour atteindre la pulpe. Au sein de la chambre pulpaire les fibres se subdivisent et ce sont les ramifications terminales qui se situent dans la zone sous-odontoblastique qui forme le plexus de Rashkow.
+          <t>Cellules</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone sous-odontoblastique ou zone de Weil est une zone acellulaire qui contient un important plexus/réseau vasculo-nerveux.
 </t>
         </is>
       </c>
@@ -563,19 +560,373 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cellules</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Odontoblastes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Composés d'un corps dans la pulpe en forme de palissade et en prolongement dans les tubuli dentinaires. La pulpe peut être séparée des odontoblastes par la zone claire de Weil, acellulaire et inconstante.
+Ce sont des cellules post-mitotiques, responsables de la dentinogenèse (sécrétion de la prédentine et la métadentine). Les odontoblastes participent à la réponse inflammatoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cellules</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cellule de Hohl</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petites cellules rondes possédant la capacité de remplacer les odontoblastes et de former une dentine de réparation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cellules</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fibroblastes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils possèdent la capacité de se différencier en odontoblastes et de former une dentine de réparation. Rôle de synthèse et entretien de la matrice extra-cellulaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cellules</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cellules souche : capacité de se différencier en odontoblaste et de former une dentine de réparation. Ces cellules polypotentes ont une localisation paravasculaire (péricyte).
+Cellules de défense immunitaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Matrice extracellulaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est composée pour 34 % de collagène (par importance décroissante : type I, type III, type V, type VI et type IV) et pour 66 % d'éléments non collagéniques (glycoprotéines, glycosaminoglycanes, élastane, lipides et métalloprotéinase matricielle).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une artériole pulpaire pénètre dans la dent par le foramen apical. Une fois dans la chambre pulpaire, l'artériole se ramifie en capillaires fenestrés. La palissade odontoblastique contient des anses capillaires.
+Le retour veineux se collecte dans chaque racine de la dent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Innervation neurovégétative</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est responsable de la régulation du flux sanguin et est assurée par des fibres sympathiques ; des fibres amyeliniques ; des fibres vasomotrices.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'innervation sensitive est réalisée par diverses fibres sensitives issues du nerf alvéolaire : fibres myéliniques (A delta) ; fibres peu myéliniques (A beta) ; fibres amyéliniques (fibres c).
+Ces fibres pénètrent le foramen apical pour cheminer au sein des canaux radiculaires pour atteindre la pulpe. Au sein de la chambre pulpaire les fibres se subdivisent et ce sont les ramifications terminales qui se situent dans la zone sous-odontoblastique qui forme le plexus de Rashkow.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étiologie des pathologies pulpaires
-Les bactéries. Quand la carie arrive à la limite émail/dentine, on peut déjà observer des modifications au niveau de la pulpe.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Étiologie des pathologies pulpaires</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les bactéries. Quand la carie arrive à la limite émail/dentine, on peut déjà observer des modifications au niveau de la pulpe.
 Anomalies de développement. Des dents invaginées ou évaginées augmentent le risque de pathologie pulpaire.
 Facteurs iatrogènes. Lors de la taille de la dentine, il faut éviter d'agresser la pulpe. Agressions possibles : échauffement ; pression ; dessèchement ; tenons dentinaires.
 Traumatismes aigus. Une luxation, une fracture ou une fêlure allant jusqu'à la pulpe nécessitent la dévitalisation de la dent.
-Traumatismes chroniques. Des problèmes occlusaux, un bruxisme, des forces orthodontiques trop brutales agressent la pulpe.
-Paléodiagnostic
-La pulpe dentaire peut être extraite de squelettes très vieux, exceptionnement âgés de 2000 ans. Son état de conservation peut permettre de l'étudier par diverses techniques de recherche utilisées couramment pour des tissus contemporains. La pulpe dentaire peut ainsi fournir de nombreuses données sur la santé des individus dont le squelette a été retrouvé[1].
+Traumatismes chroniques. Des problèmes occlusaux, un bruxisme, des forces orthodontiques trop brutales agressent la pulpe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pulpe_de_la_dent</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Paléodiagnostic</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe dentaire peut être extraite de squelettes très vieux, exceptionnement âgés de 2000 ans. Son état de conservation peut permettre de l'étudier par diverses techniques de recherche utilisées couramment pour des tissus contemporains. La pulpe dentaire peut ainsi fournir de nombreuses données sur la santé des individus dont le squelette a été retrouvé.
 </t>
         </is>
       </c>
